--- a/testStrategy/test_cases.xlsx
+++ b/testStrategy/test_cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="237">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">SRCH-001</t>
+    <t xml:space="preserve">BOOK-001</t>
   </si>
   <si>
     <t xml:space="preserve">Search</t>
@@ -78,7 +78,7 @@
     <t xml:space="preserve">Positive / Functional</t>
   </si>
   <si>
-    <t xml:space="preserve">SRCH-002</t>
+    <t xml:space="preserve">BOOK-002</t>
   </si>
   <si>
     <t xml:space="preserve">Successful return trip search (if return option available)</t>
@@ -97,7 +97,7 @@
     <t xml:space="preserve">Applicable only if return-trip option is supported in UI.</t>
   </si>
   <si>
-    <t xml:space="preserve">SRCH-003</t>
+    <t xml:space="preserve">BOOK-003</t>
   </si>
   <si>
     <t xml:space="preserve">Swap origin and destination using swap control</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">Only if swap control exists.</t>
   </si>
   <si>
-    <t xml:space="preserve">SRCH-004</t>
+    <t xml:space="preserve">BOOK-004</t>
   </si>
   <si>
     <t xml:space="preserve">Search with multiple passengers</t>
@@ -144,7 +144,7 @@
     <t xml:space="preserve">Search results and subsequent price summary reflect the total number of passengers and correct pricing per passenger type.</t>
   </si>
   <si>
-    <t xml:space="preserve">SRCH-005</t>
+    <t xml:space="preserve">BOOK-005</t>
   </si>
   <si>
     <t xml:space="preserve">Reset search form to default values</t>
@@ -165,7 +165,7 @@
     <t xml:space="preserve">Low</t>
   </si>
   <si>
-    <t xml:space="preserve">SRCH-006</t>
+    <t xml:space="preserve">BOOK-006</t>
   </si>
   <si>
     <t xml:space="preserve">Autocomplete suggestions for origin field</t>
@@ -187,7 +187,7 @@
     <t xml:space="preserve">Positive / UX</t>
   </si>
   <si>
-    <t xml:space="preserve">SRCH-007</t>
+    <t xml:space="preserve">BOOK-007</t>
   </si>
   <si>
     <t xml:space="preserve">Prevent selecting past dates in date picker</t>
@@ -208,7 +208,7 @@
     <t xml:space="preserve">Negative / Validation</t>
   </si>
   <si>
-    <t xml:space="preserve">SRCH-008</t>
+    <t xml:space="preserve">BOOK-008</t>
   </si>
   <si>
     <t xml:space="preserve">Search for very future date (e.g., 1 year ahead)</t>
@@ -229,7 +229,7 @@
     <t xml:space="preserve">Boundary / Functional</t>
   </si>
   <si>
-    <t xml:space="preserve">SRCH-009</t>
+    <t xml:space="preserve">BOOK-009</t>
   </si>
   <si>
     <t xml:space="preserve">Blank origin field validation</t>
@@ -247,7 +247,7 @@
     <t xml:space="preserve">Search is not executed. An inline error or highlight is shown for the origin field indicating it is required.</t>
   </si>
   <si>
-    <t xml:space="preserve">SRCH-010</t>
+    <t xml:space="preserve">BOOK-010</t>
   </si>
   <si>
     <t xml:space="preserve">Blank destination field validation</t>
@@ -263,7 +263,7 @@
     <t xml:space="preserve">Search is not executed. An inline error or highlight is shown for the destination field indicating it is required.</t>
   </si>
   <si>
-    <t xml:space="preserve">SRCH-011</t>
+    <t xml:space="preserve">BOOK-011</t>
   </si>
   <si>
     <t xml:space="preserve">Both origin and destination blank</t>
@@ -278,7 +278,7 @@
     <t xml:space="preserve">System prevents search execution and clearly indicates that both origin and destination are required.</t>
   </si>
   <si>
-    <t xml:space="preserve">SRCH-012</t>
+    <t xml:space="preserve">BOOK-012</t>
   </si>
   <si>
     <t xml:space="preserve">Origin and destination are the same location</t>
@@ -293,7 +293,7 @@
     <t xml:space="preserve">System shows a clear message that origin and destination cannot be the same, or else returns a 'no results' message without technical error.</t>
   </si>
   <si>
-    <t xml:space="preserve">SRCH-013</t>
+    <t xml:space="preserve">BOOK-013</t>
   </si>
   <si>
     <t xml:space="preserve">Manually entering an invalid date format</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">System validates the field, shows an error or resets to a valid format, and does not execute the search until a valid date is entered.</t>
   </si>
   <si>
-    <t xml:space="preserve">SRCH-014</t>
+    <t xml:space="preserve">BOOK-014</t>
   </si>
   <si>
     <t xml:space="preserve">Search with route that has no connections</t>
@@ -332,7 +332,7 @@
     <t xml:space="preserve">Negative / Functional</t>
   </si>
   <si>
-    <t xml:space="preserve">SRCH-015</t>
+    <t xml:space="preserve">BOOK-015</t>
   </si>
   <si>
     <t xml:space="preserve">Set maximum allowed passengers</t>
@@ -351,7 +351,7 @@
     <t xml:space="preserve">System accepts the maximum allowed passenger count and returns results or a clear message if capacity is limited.</t>
   </si>
   <si>
-    <t xml:space="preserve">SRCH-016</t>
+    <t xml:space="preserve">BOOK-016</t>
   </si>
   <si>
     <t xml:space="preserve">Attempt to exceed maximum passengers</t>
@@ -369,7 +369,7 @@
     <t xml:space="preserve">Negative / Boundary</t>
   </si>
   <si>
-    <t xml:space="preserve">RES-001</t>
+    <t xml:space="preserve">BOOK-017</t>
   </si>
   <si>
     <t xml:space="preserve">Results</t>
@@ -391,7 +391,7 @@
     <t xml:space="preserve">Positive / UI</t>
   </si>
   <si>
-    <t xml:space="preserve">RES-002</t>
+    <t xml:space="preserve">BOOK-018</t>
   </si>
   <si>
     <t xml:space="preserve">Default sorting of results (e.g., earliest departure)</t>
@@ -407,7 +407,7 @@
     <t xml:space="preserve">Trips are sorted in the configured default order (commonly by earliest departure time or lowest price).</t>
   </si>
   <si>
-    <t xml:space="preserve">RES-003</t>
+    <t xml:space="preserve">BOOK-019</t>
   </si>
   <si>
     <t xml:space="preserve">Apply time-range filter to results (if available)</t>
@@ -427,7 +427,7 @@
     <t xml:space="preserve">Only if time-range filter exists.</t>
   </si>
   <si>
-    <t xml:space="preserve">RES-004</t>
+    <t xml:space="preserve">BOOK-020</t>
   </si>
   <si>
     <t xml:space="preserve">Apply price filter or sort (if available)</t>
@@ -444,7 +444,7 @@
     <t xml:space="preserve">Trips either display in ascending price order or only those within the selected price range are shown.</t>
   </si>
   <si>
-    <t xml:space="preserve">RES-005</t>
+    <t xml:space="preserve">BOOK-021</t>
   </si>
   <si>
     <t xml:space="preserve">Modify search criteria from results page</t>
@@ -462,7 +462,7 @@
     <t xml:space="preserve">System re-runs the search with updated criteria and displays new results; URL and displayed summary reflect the new search.</t>
   </si>
   <si>
-    <t xml:space="preserve">RES-006</t>
+    <t xml:space="preserve">BOOK-022</t>
   </si>
   <si>
     <t xml:space="preserve">No results scenario on results page</t>
@@ -478,7 +478,7 @@
     <t xml:space="preserve">A clear 'no departures found' message is displayed, with an option to change search criteria; no broken layout or technical error is shown.</t>
   </si>
   <si>
-    <t xml:space="preserve">RES-007</t>
+    <t xml:space="preserve">BOOK-023</t>
   </si>
   <si>
     <t xml:space="preserve">Select a trip and proceed to passenger details</t>
@@ -495,7 +495,7 @@
     <t xml:space="preserve">User is navigated to the booking/passenger details page for the selected trip, with trip summary displayed.</t>
   </si>
   <si>
-    <t xml:space="preserve">RES-008</t>
+    <t xml:space="preserve">BOOK-024</t>
   </si>
   <si>
     <t xml:space="preserve">Pagination or 'load more' behavior</t>
@@ -512,7 +512,7 @@
     <t xml:space="preserve">Additional trip results are loaded without duplicating entries; total count and navigation remain consistent.</t>
   </si>
   <si>
-    <t xml:space="preserve">BK-001</t>
+    <t xml:space="preserve">BOOK-025</t>
   </si>
   <si>
     <t xml:space="preserve">Booking</t>
@@ -532,7 +532,7 @@
     <t xml:space="preserve">Passenger details page clearly shows selected route, date, times, passenger count and total price summary.</t>
   </si>
   <si>
-    <t xml:space="preserve">BK-002</t>
+    <t xml:space="preserve">BOOK-026</t>
   </si>
   <si>
     <t xml:space="preserve">Successful entry of passenger details</t>
@@ -549,7 +549,7 @@
     <t xml:space="preserve">System accepts data without validation errors and navigates to the payment page (or next booking step).</t>
   </si>
   <si>
-    <t xml:space="preserve">BK-003</t>
+    <t xml:space="preserve">BOOK-027</t>
   </si>
   <si>
     <t xml:space="preserve">Mandatory passenger fields left blank</t>
@@ -565,7 +565,7 @@
     <t xml:space="preserve">System blocks progress and shows clear inline errors for each missing required field.</t>
   </si>
   <si>
-    <t xml:space="preserve">BK-004</t>
+    <t xml:space="preserve">BOOK-028</t>
   </si>
   <si>
     <t xml:space="preserve">Invalid email format validation</t>
@@ -580,7 +580,7 @@
     <t xml:space="preserve">System displays a validation error indicating the email format is invalid and does not proceed.</t>
   </si>
   <si>
-    <t xml:space="preserve">BK-005</t>
+    <t xml:space="preserve">BOOK-029</t>
   </si>
   <si>
     <t xml:space="preserve">Phone number validation for non-numeric characters</t>
@@ -597,7 +597,7 @@
     <t xml:space="preserve">System either restricts input to allowed characters or shows error that the phone number is invalid.</t>
   </si>
   <si>
-    <t xml:space="preserve">BK-006</t>
+    <t xml:space="preserve">BOOK-030</t>
   </si>
   <si>
     <t xml:space="preserve">Support for special characters and accents in names</t>
@@ -614,7 +614,7 @@
     <t xml:space="preserve">Positive / Internationalization</t>
   </si>
   <si>
-    <t xml:space="preserve">BK-007</t>
+    <t xml:space="preserve">BOOK-031</t>
   </si>
   <si>
     <t xml:space="preserve">Multiple passengers data entry consistency</t>
@@ -631,7 +631,7 @@
     <t xml:space="preserve">System requires data for each passenger and shows all passengers correctly in subsequent summaries and tickets.</t>
   </si>
   <si>
-    <t xml:space="preserve">BK-008</t>
+    <t xml:space="preserve">BOOK-032</t>
   </si>
   <si>
     <t xml:space="preserve">Terms and conditions acceptance enforced</t>
@@ -648,7 +648,7 @@
     <t xml:space="preserve">System prevents proceeding and shows error indicating that terms must be accepted.</t>
   </si>
   <si>
-    <t xml:space="preserve">BK-009</t>
+    <t xml:space="preserve">BOOK-033</t>
   </si>
   <si>
     <t xml:space="preserve">Navigate back from passenger details to results</t>
@@ -664,7 +664,7 @@
     <t xml:space="preserve">Navigation / Functional</t>
   </si>
   <si>
-    <t xml:space="preserve">BK-010</t>
+    <t xml:space="preserve">BOOK-034</t>
   </si>
   <si>
     <t xml:space="preserve">Seat selection behavior (if supported)</t>
@@ -685,7 +685,7 @@
     <t xml:space="preserve">Only if seat selection exists.</t>
   </si>
   <si>
-    <t xml:space="preserve">BK-011</t>
+    <t xml:space="preserve">BOOK-035</t>
   </si>
   <si>
     <t xml:space="preserve">Add extra services (e.g., extra luggage) to booking</t>
@@ -702,201 +702,7 @@
     <t xml:space="preserve">Selected extras are added to booking, clearly listed in summary with updated total price.</t>
   </si>
   <si>
-    <t xml:space="preserve">PMT-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payment page displays full booking summary and payment options</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User has completed passenger details successfully.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Proceed from passenger details to payment step.
-2. Inspect payment page contents.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payment page shows full summary (route, date, passengers, extras, total price) and supported payment methods with fields for card details or other methods.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMT-002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Successful card payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test environment or safe card data is available for positive payment testing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. On payment page, enter valid card number, expiry date, CVV and required billing details.
-2. Complete any 3D Secure/authentication steps if prompted.
-3. Confirm payment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payment is authorized successfully and user is redirected to a confirmation page with booking/ticket details and confirmation email is sent.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Critical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMT-003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invalid card number (fails Luhn check)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User is on payment page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Enter an obviously invalid card number (e.g., 1111 1111 1111 1111).
-2. Fill other required fields with valid values.
-3. Attempt to submit payment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client-side or server-side validation rejects the card number with an appropriate error message; payment is not processed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMT-004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expired card validation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Enter a valid card number.
-2. Enter an expiry date in the past.
-3. Fill remaining fields correctly.
-4. Attempt to submit payment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System rejects the payment attempt and displays an error indicating that the card has expired.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMT-005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missing CVV validation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User is on payment page and CVV is mandatory for card payments.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Enter valid card number and expiry date.
-2. Leave CVV field blank.
-3. Attempt to submit payment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System does not proceed and shows a clear error message indicating that CVV is required.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMT-006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mandatory billing fields validation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payment page requires billing details (e.g., cardholder name, address, country).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Leave one or more mandatory billing fields empty.
-2. Attempt to submit payment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System highlights missing mandatory fields with appropriate error messages and blocks payment submission.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMT-007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payment declined by provider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test card or configuration exists to simulate declined transaction.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. On payment page, enter card details configured to trigger 'declined' status.
-2. Submit payment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System displays a message indicating that payment was declined, offers option to retry with another card or change payment method, and does not create a confirmed booking.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMT-008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payment timeout or network failure handling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Network conditions or test tools allow simulating timeout.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Start payment submission.
-2. Simulate slow or interrupted network during authorization.
-3. Observe system behavior.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System shows clear error message, does not double-charge, and allows safe retry or returns user to a stable state with booking still pending/not confirmed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negative / Reliability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMT-009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consistency of total price between booking and payment pages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User has added passengers and any extras before reaching payment page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Note total price on booking summary before payment.
-2. Proceed to payment page.
-3. Compare totals displayed.
-4. Complete payment and check confirmation total.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total price remains consistent across booking summary, payment page and confirmation page; currency is displayed consistently.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMT-010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Back navigation from payment page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User is on payment page with booking data filled.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Use browser back button or in-page navigation to go back to previous step (e.g., passenger details).
-2. Observe data persistence.
-3. Navigate forward to payment again.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User can safely navigate back without losing essential booking data or creating duplicate pending bookings; returning to payment restores valid summary.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMT-011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page refresh behavior on confirmation page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A booking has just been successfully paid and confirmation page is displayed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. On confirmation page, press browser refresh (F5 or equivalent).
-2. Observe system behavior.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refreshing confirmation page does not trigger another payment or booking; either re-displays confirmation or requires the user to log in to manage booking.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reliability / Idempotency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEN-001</t>
+    <t xml:space="preserve">BOOK-036</t>
   </si>
   <si>
     <t xml:space="preserve">General UI</t>
@@ -918,7 +724,7 @@
     <t xml:space="preserve">UI / Performance</t>
   </si>
   <si>
-    <t xml:space="preserve">GEN-002</t>
+    <t xml:space="preserve">BOOK-037</t>
   </si>
   <si>
     <t xml:space="preserve">Responsive layout on mobile viewport</t>
@@ -938,7 +744,7 @@
     <t xml:space="preserve">UI / Responsive</t>
   </si>
   <si>
-    <t xml:space="preserve">GEN-003</t>
+    <t xml:space="preserve">BOOK-038</t>
   </si>
   <si>
     <t xml:space="preserve">Localization</t>
@@ -962,7 +768,7 @@
     <t xml:space="preserve">Internationalization</t>
   </si>
   <si>
-    <t xml:space="preserve">GEN-004</t>
+    <t xml:space="preserve">BOOK-039</t>
   </si>
   <si>
     <t xml:space="preserve">Error Handling</t>
@@ -981,7 +787,10 @@
     <t xml:space="preserve">User sees a friendly error message (not a raw stack trace) and is offered option to retry or contact support; UI remains responsive.</t>
   </si>
   <si>
-    <t xml:space="preserve">GEN-005</t>
+    <t xml:space="preserve">Negative / Reliability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOOK-040</t>
   </si>
   <si>
     <t xml:space="preserve">Session</t>
@@ -1004,60 +813,7 @@
     <t xml:space="preserve">Reliability / Security</t>
   </si>
   <si>
-    <t xml:space="preserve">GEN-006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accessibility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyboard-only navigation through key flows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User has a keyboard and no pointing device.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Using only keyboard (Tab/Shift+Tab/Enter/Space), complete a simple search and attempt to proceed through booking steps.
-2. Observe focus order and visibility.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All interactive elements are reachable via keyboard in a logical order; focus is clearly visible and actions can be triggered without a mouse.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEN-007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Screen reader compatibility on core pages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Screen reader software (e.g., NVDA, VoiceOver) is available.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Enable screen reader.
-2. Navigate search page, results page, and booking page.
-3. Listen to announced labels and controls.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Important controls have descriptive labels; landmarks and headings are used; trip information is read in a meaningful order.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEN-008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manage booking link (if available)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home or confirmation page displays a 'Manage Booking' or similar link.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Locate 'Manage Booking' link or button.
-2. Click the link.
-3. Observe navigation and any required identifiers (e.g., booking reference, email).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User is taken to a manage-booking interface or instructions page without errors; any required input fields are validated appropriately.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEN-009</t>
+    <t xml:space="preserve">BOOK-041</t>
   </si>
   <si>
     <t xml:space="preserve">General</t>
@@ -1168,20 +924,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1377,16 +1137,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="18.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="42.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="60.42"/>
@@ -1396,31 +1156,31 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1428,7 +1188,7 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1443,7 +1203,7 @@
       <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -1454,7 +1214,7 @@
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1469,7 +1229,7 @@
       <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1483,7 +1243,7 @@
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1498,7 +1258,7 @@
       <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -1512,7 +1272,7 @@
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1527,7 +1287,7 @@
       <c r="F5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -1538,7 +1298,7 @@
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1553,7 +1313,7 @@
       <c r="F6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -1564,7 +1324,7 @@
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1579,7 +1339,7 @@
       <c r="F7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -1590,7 +1350,7 @@
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1605,7 +1365,7 @@
       <c r="F8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -1616,7 +1376,7 @@
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1631,7 +1391,7 @@
       <c r="F9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -1642,7 +1402,7 @@
       <c r="A10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1657,7 +1417,7 @@
       <c r="F10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -1668,7 +1428,7 @@
       <c r="A11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1683,7 +1443,7 @@
       <c r="F11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -1694,7 +1454,7 @@
       <c r="A12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1709,7 +1469,7 @@
       <c r="F12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -1720,7 +1480,7 @@
       <c r="A13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1735,7 +1495,7 @@
       <c r="F13" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -1746,7 +1506,7 @@
       <c r="A14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1761,7 +1521,7 @@
       <c r="F14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -1772,7 +1532,7 @@
       <c r="A15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1787,7 +1547,7 @@
       <c r="F15" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -1798,7 +1558,7 @@
       <c r="A16" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1813,7 +1573,7 @@
       <c r="F16" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -1824,7 +1584,7 @@
       <c r="A17" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1839,7 +1599,7 @@
       <c r="F17" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -1850,7 +1610,7 @@
       <c r="A18" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1865,7 +1625,7 @@
       <c r="F18" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -1876,7 +1636,7 @@
       <c r="A19" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1891,7 +1651,7 @@
       <c r="F19" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -1902,7 +1662,7 @@
       <c r="A20" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1917,7 +1677,7 @@
       <c r="F20" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -1931,7 +1691,7 @@
       <c r="A21" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1946,7 +1706,7 @@
       <c r="F21" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -1957,7 +1717,7 @@
       <c r="A22" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1972,7 +1732,7 @@
       <c r="F22" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -1983,7 +1743,7 @@
       <c r="A23" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1998,7 +1758,7 @@
       <c r="F23" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -2009,7 +1769,7 @@
       <c r="A24" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -2024,7 +1784,7 @@
       <c r="F24" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -2035,7 +1795,7 @@
       <c r="A25" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -2050,7 +1810,7 @@
       <c r="F25" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -2061,7 +1821,7 @@
       <c r="A26" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -2076,7 +1836,7 @@
       <c r="F26" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H26" s="1" t="s">
@@ -2087,7 +1847,7 @@
       <c r="A27" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -2102,7 +1862,7 @@
       <c r="F27" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -2113,7 +1873,7 @@
       <c r="A28" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -2128,7 +1888,7 @@
       <c r="F28" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H28" s="1" t="s">
@@ -2139,7 +1899,7 @@
       <c r="A29" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -2154,7 +1914,7 @@
       <c r="F29" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H29" s="1" t="s">
@@ -2165,7 +1925,7 @@
       <c r="A30" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -2180,7 +1940,7 @@
       <c r="F30" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="G30" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H30" s="1" t="s">
@@ -2191,7 +1951,7 @@
       <c r="A31" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -2206,7 +1966,7 @@
       <c r="F31" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="G31" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -2217,7 +1977,7 @@
       <c r="A32" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2232,7 +1992,7 @@
       <c r="F32" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="G32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H32" s="1" t="s">
@@ -2243,7 +2003,7 @@
       <c r="A33" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -2258,7 +2018,7 @@
       <c r="F33" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="G33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H33" s="1" t="s">
@@ -2269,7 +2029,7 @@
       <c r="A34" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -2284,7 +2044,7 @@
       <c r="F34" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G34" s="0" t="s">
+      <c r="G34" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H34" s="1" t="s">
@@ -2295,7 +2055,7 @@
       <c r="A35" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -2310,7 +2070,7 @@
       <c r="F35" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G35" s="0" t="s">
+      <c r="G35" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H35" s="1" t="s">
@@ -2324,7 +2084,7 @@
       <c r="A36" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -2339,18 +2099,18 @@
       <c r="F36" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G36" s="0" t="s">
+      <c r="G36" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2365,507 +2125,157 @@
       <c r="F37" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G37" s="0" t="s">
+      <c r="G37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B38" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G38" s="0" t="s">
         <v>207</v>
       </c>
+      <c r="G38" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H38" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>197</v>
+        <v>209</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G39" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G40" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="H40" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>197</v>
+        <v>223</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>15</v>
+        <v>228</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>197</v>
+        <v>230</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G42" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F44" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="G44" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G45" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G46" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="G47" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G48" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G49" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G50" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G51" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="G52" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="G53" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G54" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="G55" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="G56" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/testStrategy/test_cases.xlsx
+++ b/testStrategy/test_cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="190">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -284,7 +284,56 @@
 4. Click search.</t>
   </si>
   <si>
-    <t xml:space="preserve">System displays a friendly 'no results found' message and may offer hints or suggestions; no technical errors.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">System displays a friendly warning pop-up below the field after typing the non-existing route: “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3465A4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">We can’t find this place. Please check typos or try again with different keywords</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">”. If the “Search” button is pressed, then “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Please choose an option</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">” red text under the input field is shown</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Negative / Functional</t>
@@ -315,7 +364,7 @@
 4. Observe control behavior.</t>
   </si>
   <si>
-    <t xml:space="preserve">Control prevents exceeding the maximum (e.g., plus button disabled at limit or validation error is shown).</t>
+    <t xml:space="preserve">Control prevents exceeding the maximum by disabling the ‘+’ button</t>
   </si>
   <si>
     <t xml:space="preserve">Negative / Boundary</t>
@@ -691,26 +740,6 @@
   </si>
   <si>
     <t xml:space="preserve">Reliability / Security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deep link with prefilled search parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application supports URL parameters for origin, destination or date.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open the booking URL with query parameters predefining origin, destination and date.
-2. Observe search form values.
-3. Trigger search without changing parameters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search form initializes with values from URL parameters and search runs successfully, returning appropriate results.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Functional / Integration</t>
   </si>
 </sst>
 </file>
@@ -720,7 +749,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -747,6 +776,20 @@
       <b val="true"/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3465A4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -839,6 +882,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF3465A4"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1022,10 +1125,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1413,7 +1516,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="240.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
@@ -1439,7 +1542,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="89.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
@@ -1465,7 +1568,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="79.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
@@ -2121,32 +2224,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/testStrategy/test_cases.xlsx
+++ b/testStrategy/test_cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="186">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -52,15 +52,15 @@
     <t xml:space="preserve">Search</t>
   </si>
   <si>
-    <t xml:space="preserve">Successful one-way search with valid origin, destination and date</t>
+    <t xml:space="preserve">Successful one-way search with valid ‘From’, ‘To’ and date</t>
   </si>
   <si>
     <t xml:space="preserve">User has network connection and can access booking URL.</t>
   </si>
   <si>
     <t xml:space="preserve">1. Open the booking URL.
-2. Enter a valid origin stop/city.
-3. Enter a valid destination stop/city.
+2. Enter a valid ‘From’ stop/city.
+3. Enter a valid ‘To’ stop/city.
 4. Select a departure date in the future.
 5. Keep default passenger count.
 6. Click the search button.</t>
@@ -75,12 +75,12 @@
     <t xml:space="preserve">Positive / Functional</t>
   </si>
   <si>
-    <t xml:space="preserve">Successful return trip search (if return option available)</t>
+    <t xml:space="preserve">Successful return trip search</t>
   </si>
   <si>
     <t xml:space="preserve">1. Open the booking URL.
 2. Select the return trip option.
-3. Enter valid origin and destination.
+3. Enter valid ‘From’ and ‘To’.
 4. Select a valid outbound date and a valid return date later than outbound.
 5. Click the search button.</t>
   </si>
@@ -91,20 +91,20 @@
     <t xml:space="preserve">Applicable only if return-trip option is supported in UI.</t>
   </si>
   <si>
-    <t xml:space="preserve">Swap origin and destination using swap control</t>
+    <t xml:space="preserve">Swap ‘From’ and ‘To’ using swap control</t>
   </si>
   <si>
     <t xml:space="preserve">Search form provides a swap origin/destination control.</t>
   </si>
   <si>
     <t xml:space="preserve">1. Open the booking URL.
-2. Enter origin A and destination B.
+2. Enter ‘From’ A and ‘To’ B.
 3. Click the swap control/button.
 4. Verify values in origin and destination fields.
 5. Click search.</t>
   </si>
   <si>
-    <t xml:space="preserve">Origin and destination values are swapped (origin = B, destination = A) and the search runs successfully using swapped values.</t>
+    <t xml:space="preserve">Origin and destination values are swapped (‘From’ = B, ‘To’ = A) and the search runs successfully using swapped values.</t>
   </si>
   <si>
     <t xml:space="preserve">Medium</t>
@@ -123,8 +123,8 @@
   </si>
   <si>
     <t xml:space="preserve">1. Open the booking URL.
-2. Enter valid origin, destination and future date.
-3. Open passenger selector and set 2 adults and 1 child (or equivalent multi-passenger configuration).
+2. Enter valid ‘From’, ‘To’ and future date.
+3. Open passenger selector and set 2 or more passengers
 4. Click search.
 5. Proceed up to price summary/checkout.</t>
   </si>
@@ -132,38 +132,20 @@
     <t xml:space="preserve">Search results and subsequent price summary reflect the total number of passengers and correct pricing per passenger type.</t>
   </si>
   <si>
-    <t xml:space="preserve">Reset search form to default values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search form provides a reset/clear button or equivalent control.</t>
+    <t xml:space="preserve">Auto-complete suggestions for ‘From’ field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto-complete is supported for origin input.</t>
   </si>
   <si>
     <t xml:space="preserve">1. Open the booking URL.
-2. Enter origin, destination, select a date and modify passengers.
-3. Click the reset/clear button.
-4. Observe field values.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All fields (origin, destination, date, passengers) are cleared or reset to default values, and no validation errors are displayed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autocomplete suggestions for origin field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autocomplete is supported for origin input.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open the booking URL.
-2. Focus on the origin field.
+2. Focus on the ‘From’ field.
 3. Type at least three characters of a known city/stop.
 4. Use keyboard arrows to navigate suggestions.
-5. Press Enter to select a suggestion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A dropdown of relevant matching stops/cities appears, keyboard navigation works and selected suggestion populates the origin field.</t>
+5. Click the highlighted suggestion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A drop-down of relevant matching stops/cities appears, keyboard navigation works and selected suggestion populates the origin field.</t>
   </si>
   <si>
     <t xml:space="preserve">Positive / UX</t>
@@ -181,7 +163,7 @@
 4. Attempt to proceed with the search.</t>
   </si>
   <si>
-    <t xml:space="preserve">Past dates are disabled in the date picker or trigger validation error; user cannot run a search with a departure date in the past.</t>
+    <t xml:space="preserve">Past dates are disabled in the date picker, so no ability to select</t>
   </si>
   <si>
     <t xml:space="preserve">Negative / Validation</t>
@@ -199,57 +181,86 @@
 4. Click search.</t>
   </si>
   <si>
-    <t xml:space="preserve">System either returns valid results for that future date or shows a clear 'no departures available' message without errors.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">System either returns valid results for that future date or shows a clear '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3465A4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">No luck, try another search.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">' message without errors.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Boundary / Functional</t>
   </si>
   <si>
-    <t xml:space="preserve">Blank origin field validation</t>
+    <t xml:space="preserve">Blank ‘From’ field validation</t>
   </si>
   <si>
     <t xml:space="preserve">Search page loaded.</t>
   </si>
   <si>
     <t xml:space="preserve">1. Open the booking URL.
-2. Leave origin blank.
-3. Enter valid destination and departure date.
+2. Leave ‘From’ blank.
+3. Enter valid ‘To’ and ‘Departure date’.
 4. Click the search button.</t>
   </si>
   <si>
-    <t xml:space="preserve">Search is not executed. An inline error or highlight is shown for the origin field indicating it is required.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blank destination field validation</t>
+    <t xml:space="preserve">Search is not executed. An inline error or highlight is shown for the ‘From’ field indicating it is required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blank ‘To’ field validation</t>
   </si>
   <si>
     <t xml:space="preserve">1. Open the booking URL.
-2. Enter valid origin.
-3. Leave destination blank.
+2. Enter valid ‘From’.
+3. Leave ‘To’ blank.
 4. Select valid date.
 5. Click the search button.</t>
   </si>
   <si>
-    <t xml:space="preserve">Search is not executed. An inline error or highlight is shown for the destination field indicating it is required.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Both origin and destination blank</t>
+    <t xml:space="preserve">Search is not executed. An inline error or highlight is shown for the ‘To’ field indicating it is required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both ‘From’ and ‘To’ blank</t>
   </si>
   <si>
     <t xml:space="preserve">1. Open the booking URL.
-2. Leave origin and destination blank.
+2. Leave ‘From’ and destination blank.
 3. Select a valid date.
 4. Click the search button.</t>
   </si>
   <si>
-    <t xml:space="preserve">System prevents search execution and clearly indicates that both origin and destination are required.</t>
+    <t xml:space="preserve">System prevents search execution and clearly indicates that both ‘From’ and ‘To’ are required.</t>
   </si>
   <si>
     <t xml:space="preserve">Origin and destination are the same location</t>
   </si>
   <si>
     <t xml:space="preserve">1. Open the booking URL.
-2. Set origin and destination to the same stop/city.
+2. Set ‘From’ and ‘To’ to the same stop/city.
 3. Select valid date.
 4. Click search.</t>
   </si>
@@ -264,7 +275,7 @@
   </si>
   <si>
     <t xml:space="preserve">1. Open the booking URL.
-2. Click into the departure date field.
+2. Click into the ‘Departure date’ field.
 3. Manually type an invalid date string (e.g., '32/13/2025').
 4. Move focus away and click search.</t>
   </si>
@@ -279,7 +290,7 @@
   </si>
   <si>
     <t xml:space="preserve">1. Open the booking URL.
-2. Enter an origin and destination pair known to have no routes.
+2. Enter an ‘From’ and ‘To’ pair known to have no routes.
 3. Select a valid future date.
 4. Click search.</t>
   </si>
@@ -348,7 +359,7 @@
     <t xml:space="preserve">1. Open the booking URL.
 2. Open passenger selector.
 3. Increase passengers to the maximum allowed.
-4. Enter valid origin, destination and date.
+4. Enter valid ‘From’, ‘To’ and date.
 5. Click search.</t>
   </si>
   <si>
@@ -487,6 +498,9 @@
   </si>
   <si>
     <t xml:space="preserve">Additional trip results are loaded without duplicating entries; total count and navigation remain consistent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low</t>
   </si>
   <si>
     <t xml:space="preserve">Booking</t>
@@ -1128,7 +1142,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1282,9 +1296,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -1302,15 +1316,15 @@
         <v>34</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -1328,15 +1342,15 @@
         <v>39</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
@@ -1354,7 +1368,7 @@
         <v>44</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>45</v>
@@ -1362,7 +1376,7 @@
     </row>
     <row r="9" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -1380,145 +1394,145 @@
         <v>49</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="G11" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="240.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="240.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" customFormat="false" ht="89.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>9</v>
@@ -1536,70 +1550,70 @@
         <v>71</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="89.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="79.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="79.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>82</v>
@@ -1614,30 +1628,30 @@
         <v>85</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>24</v>
@@ -1645,13 +1659,16 @@
       <c r="H19" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I19" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>91</v>
@@ -1671,146 +1688,143 @@
       <c r="H20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="3" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="G21" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="3" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>117</v>
@@ -1828,15 +1842,15 @@
         <v>14</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>121</v>
@@ -1854,47 +1868,47 @@
         <v>14</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D28" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>130</v>
@@ -1903,70 +1917,70 @@
         <v>131</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>132</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>136</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>140</v>
@@ -1984,79 +1998,82 @@
         <v>14</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>144</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="G33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="34" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>148</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>24</v>
@@ -2064,166 +2081,138 @@
       <c r="H35" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="36" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G39" s="2" t="s">
+      <c r="H39" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="H40" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C41" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/testStrategy/test_cases.xlsx
+++ b/testStrategy/test_cases.xlsx
@@ -469,7 +469,36 @@
 2. Observe the results page content.</t>
   </si>
   <si>
-    <t xml:space="preserve">A clear 'no departures found' message is displayed, with an option to change search criteria; no broken layout or technical error is shown.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">A clear '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3465A4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">No luck, try another search.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">' message is displayed, with an option to change search criteria; no broken layout or technical error is shown.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Select a trip and proceed to passenger details</t>
@@ -1141,8 +1170,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1322,7 +1351,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>7</v>
       </c>
@@ -1400,7 +1429,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>10</v>
       </c>
@@ -1426,7 +1455,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>11</v>
       </c>

--- a/testStrategy/test_cases.xlsx
+++ b/testStrategy/test_cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="189">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
   </si>
   <si>
     <t xml:space="preserve">Search</t>
@@ -75,6 +78,9 @@
     <t xml:space="preserve">Positive / Functional</t>
   </si>
   <si>
+    <t xml:space="preserve">Automated</t>
+  </si>
+  <si>
     <t xml:space="preserve">Successful return trip search</t>
   </si>
   <si>
@@ -89,6 +95,9 @@
   </si>
   <si>
     <t xml:space="preserve">Applicable only if return-trip option is supported in UI.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual</t>
   </si>
   <si>
     <t xml:space="preserve">Swap ‘From’ and ‘To’ using swap control</t>
@@ -887,7 +896,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -902,6 +911,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1168,10 +1181,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1048576"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J40" activeCellId="0" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1184,35 +1197,39 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="18.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="16.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="21.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="14.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1220,25 +1237,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1246,28 +1266,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="I3" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1275,28 +1298,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1304,25 +1330,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1330,25 +1359,28 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1356,25 +1388,28 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1382,25 +1417,28 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1408,25 +1446,28 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1434,25 +1475,28 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1460,25 +1504,28 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1486,25 +1533,28 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1512,25 +1562,28 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="240.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1538,25 +1591,28 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="89.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1564,25 +1620,28 @@
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="79.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1590,25 +1649,28 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E16" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1616,25 +1678,28 @@
         <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1642,25 +1707,28 @@
         <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1668,28 +1736,31 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1697,25 +1768,28 @@
         <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1723,25 +1797,28 @@
         <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1749,25 +1826,28 @@
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1775,25 +1855,28 @@
         <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1801,25 +1884,28 @@
         <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1827,25 +1913,28 @@
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1853,25 +1942,28 @@
         <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1879,25 +1971,28 @@
         <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1905,25 +2000,28 @@
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="E28" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1931,25 +2029,28 @@
         <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1957,25 +2058,28 @@
         <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1983,25 +2087,28 @@
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2009,25 +2116,28 @@
         <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2035,25 +2145,28 @@
         <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2061,28 +2174,31 @@
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2090,25 +2206,28 @@
         <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2116,25 +2235,28 @@
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2142,25 +2264,29 @@
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2168,25 +2294,28 @@
         <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2194,25 +2323,28 @@
         <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2220,29 +2352,30 @@
         <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>188</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/testStrategy/test_cases.xlsx
+++ b/testStrategy/test_cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="172">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -265,7 +265,7 @@
     <t xml:space="preserve">System prevents search execution and clearly indicates that both ‘From’ and ‘To’ are required.</t>
   </si>
   <si>
-    <t xml:space="preserve">Origin and destination are the same location</t>
+    <t xml:space="preserve">‘From’ and ‘To’ are the same location</t>
   </si>
   <si>
     <t xml:space="preserve">1. Open the booking URL.
@@ -409,7 +409,7 @@
     <t xml:space="preserve">Positive / UI</t>
   </si>
   <si>
-    <t xml:space="preserve">Default sorting of results (e.g., earliest departure)</t>
+    <t xml:space="preserve">Default sorting (by Departure time) of results (e.g., earliest departure)</t>
   </si>
   <si>
     <t xml:space="preserve">A search returning several trips is available.</t>
@@ -717,23 +717,6 @@
     <t xml:space="preserve">UI / Performance</t>
   </si>
   <si>
-    <t xml:space="preserve">Responsive layout on mobile viewport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User uses a supported mobile browser or emulator.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open the booking URL on a mobile device or in responsive mode.
-2. Navigate through search, results and booking steps.
-3. Observe layout and usability (buttons, text size, scrolling).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Content adapts to small screens; no clipped or overlapping elements; forms and buttons remain easily tappable.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI / Responsive</t>
-  </si>
-  <si>
     <t xml:space="preserve">Localization</t>
   </si>
   <si>
@@ -753,45 +736,6 @@
   </si>
   <si>
     <t xml:space="preserve">Internationalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error Handling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graceful handling of server error during search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ability to simulate server error or observe behavior when backend is unavailable.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Attempt a search when backend is unavailable or misconfigured (simulate via test environment if possible).
-2. Observe error response in UI.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User sees a friendly error message (not a raw stack trace) and is offered option to retry or contact support; UI remains responsive.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negative / Reliability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Session</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Session timeout during booking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application enforces a session timeout for inactive users.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Start a booking and reach passenger or payment step.
-2. Leave browser idle until session timeout elapses.
-3. Attempt to proceed or submit payment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Session expiry is handled gracefully: user is informed, no payment is processed unexpectedly, and user may restart or recover booking if supported.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reliability / Security</t>
   </si>
 </sst>
 </file>
@@ -896,7 +840,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -911,10 +855,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1181,58 +1121,58 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J40" activeCellId="0" sqref="J40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="18.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="42.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="19.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="60.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="26.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="10.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="27.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="18.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="16.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="21.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="14.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.83"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+    <row r="1" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -1257,7 +1197,7 @@
       <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1289,7 +1229,7 @@
       <c r="I3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1321,11 +1261,11 @@
       <c r="I4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
@@ -1350,13 +1290,13 @@
       <c r="H5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
@@ -1379,13 +1319,13 @@
       <c r="H6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
@@ -1408,13 +1348,13 @@
       <c r="H7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
@@ -1437,13 +1377,13 @@
       <c r="H8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
@@ -1466,13 +1406,13 @@
       <c r="H9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>22</v>
+      <c r="J9" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>10</v>
@@ -1495,13 +1435,13 @@
       <c r="H10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
@@ -1524,13 +1464,13 @@
       <c r="H11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>10</v>
@@ -1553,13 +1493,13 @@
       <c r="H12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>10</v>
@@ -1582,13 +1522,13 @@
       <c r="H13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>17</v>
+      <c r="J13" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="240.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>10</v>
@@ -1611,13 +1551,13 @@
       <c r="H14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>22</v>
+      <c r="J14" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="89.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>10</v>
@@ -1640,13 +1580,13 @@
       <c r="H15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>17</v>
+      <c r="J15" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="79.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>10</v>
@@ -1669,13 +1609,13 @@
       <c r="H16" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>79</v>
@@ -1698,13 +1638,13 @@
       <c r="H17" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>22</v>
+      <c r="J17" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>79</v>
@@ -1727,13 +1667,13 @@
       <c r="H18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>17</v>
+      <c r="J18" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>79</v>
@@ -1759,13 +1699,13 @@
       <c r="I19" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>79</v>
@@ -1788,13 +1728,13 @@
       <c r="H20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>79</v>
@@ -1817,13 +1757,13 @@
       <c r="H21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>22</v>
+      <c r="J21" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>79</v>
@@ -1846,13 +1786,13 @@
       <c r="H22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>79</v>
@@ -1875,13 +1815,13 @@
       <c r="H23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J23" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>79</v>
@@ -1904,13 +1844,13 @@
       <c r="H24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>17</v>
+      <c r="J24" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>115</v>
@@ -1933,13 +1873,13 @@
       <c r="H25" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>115</v>
@@ -1962,13 +1902,13 @@
       <c r="H26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>22</v>
+      <c r="J26" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>115</v>
@@ -1991,13 +1931,13 @@
       <c r="H27" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>115</v>
@@ -2020,13 +1960,13 @@
       <c r="H28" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>115</v>
@@ -2049,13 +1989,13 @@
       <c r="H29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J29" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J29" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>115</v>
@@ -2078,13 +2018,13 @@
       <c r="H30" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="J30" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>115</v>
@@ -2107,13 +2047,13 @@
       <c r="H31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J31" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>115</v>
@@ -2136,13 +2076,13 @@
       <c r="H32" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="J32" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>115</v>
@@ -2165,13 +2105,13 @@
       <c r="H33" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="J33" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>115</v>
@@ -2197,13 +2137,13 @@
       <c r="I34" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="J34" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>115</v>
@@ -2226,13 +2166,13 @@
       <c r="H35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="J35" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>160</v>
@@ -2255,127 +2195,42 @@
       <c r="H36" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="J36" s="4" t="s">
+      <c r="J36" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/testStrategy/test_cases.xlsx
+++ b/testStrategy/test_cases.xlsx
@@ -791,12 +791,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEE6EF"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -840,7 +846,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -857,16 +863,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -899,7 +901,7 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFDEE6EF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -1123,56 +1125,56 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="26.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="10.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="27.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="18.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="35.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="25.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="16.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="21.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.83"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>

--- a/testStrategy/test_cases.xlsx
+++ b/testStrategy/test_cases.xlsx
@@ -1125,8 +1125,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J28" activeCellId="0" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1203,7 +1203,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="240.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="165.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
@@ -1934,10 +1934,10 @@
         <v>43</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
@@ -1963,10 +1963,10 @@
         <v>43</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>36</v>
       </c>

--- a/testStrategy/test_cases.xlsx
+++ b/testStrategy/test_cases.xlsx
@@ -1125,8 +1125,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J28" activeCellId="0" sqref="J28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1557,7 +1557,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="89.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="89.55" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="79.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="79.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
